--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H2">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I2">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J2">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1656.467168134245</v>
+        <v>1955.728067224826</v>
       </c>
       <c r="R2">
-        <v>14908.2045132082</v>
+        <v>17601.55260502343</v>
       </c>
       <c r="S2">
-        <v>0.6732922367633375</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="T2">
-        <v>0.6856630804027534</v>
+        <v>0.7031139140072441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>181.777022</v>
+        <v>72.32699966666667</v>
       </c>
       <c r="H3">
-        <v>545.331066</v>
+        <v>216.980999</v>
       </c>
       <c r="I3">
-        <v>0.6745240081000091</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J3">
-        <v>0.6869174838889931</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.030465326102667</v>
+        <v>797.6726365697673</v>
       </c>
       <c r="R3">
-        <v>27.274187934924</v>
+        <v>7179.053729127906</v>
       </c>
       <c r="S3">
-        <v>0.001231771336671638</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="T3">
-        <v>0.001254403486239754</v>
+        <v>0.2867754157616089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>72.32699966666667</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H4">
-        <v>216.980999</v>
+        <v>0.671494</v>
       </c>
       <c r="I4">
-        <v>0.2683853942167015</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J4">
-        <v>0.2733166165978157</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>659.0893557354559</v>
+        <v>2.468568178270667</v>
       </c>
       <c r="R4">
-        <v>5931.804201619103</v>
+        <v>22.217113604436</v>
       </c>
       <c r="S4">
-        <v>0.2678952864787892</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="T4">
-        <v>0.2728175037862353</v>
+        <v>0.0008874877151405584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.1445565</v>
+      </c>
+      <c r="H5">
+        <v>6.289113</v>
+      </c>
+      <c r="I5">
+        <v>0.0124165135346664</v>
+      </c>
+      <c r="J5">
+        <v>0.008312078032909873</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>72.32699966666667</v>
-      </c>
-      <c r="H5">
-        <v>216.980999</v>
-      </c>
-      <c r="I5">
-        <v>0.2683853942167015</v>
-      </c>
-      <c r="J5">
-        <v>0.2733166165978157</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.205787520442889</v>
+        <v>34.680363982437</v>
       </c>
       <c r="R5">
-        <v>10.852087683986</v>
+        <v>208.082183894622</v>
       </c>
       <c r="S5">
-        <v>0.000490107737912326</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="T5">
-        <v>0.0004991128115803777</v>
+        <v>0.008312078032909873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1272716666666667</v>
+        <v>0.2297876666666667</v>
       </c>
       <c r="H6">
-        <v>0.381815</v>
+        <v>0.6893630000000001</v>
       </c>
       <c r="I6">
-        <v>0.0004722697829078108</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="J6">
-        <v>0.0004809471080290077</v>
+        <v>0.000911104483096559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.159779904783889</v>
+        <v>2.534258779791334</v>
       </c>
       <c r="R6">
-        <v>10.438019143055</v>
+        <v>22.808329018122</v>
       </c>
       <c r="S6">
-        <v>0.0004714073549218884</v>
+        <v>0.0009073335693812714</v>
       </c>
       <c r="T6">
-        <v>0.000480068834083216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.1272716666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.381815</v>
-      </c>
-      <c r="I7">
-        <v>0.0004722697829078108</v>
-      </c>
-      <c r="J7">
-        <v>0.0004809471080290077</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>0.002121788378888889</v>
-      </c>
-      <c r="R7">
-        <v>0.01909609541</v>
-      </c>
-      <c r="S7">
-        <v>8.624279859223746E-07</v>
-      </c>
-      <c r="T7">
-        <v>8.782739457917322E-07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>14.5865095</v>
-      </c>
-      <c r="H8">
-        <v>29.173019</v>
-      </c>
-      <c r="I8">
-        <v>0.05412648278575529</v>
-      </c>
-      <c r="J8">
-        <v>0.03674732297192435</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>132.9214981001738</v>
-      </c>
-      <c r="R8">
-        <v>797.528988601043</v>
-      </c>
-      <c r="S8">
-        <v>0.05402764056627945</v>
-      </c>
-      <c r="T8">
-        <v>0.036680217429953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.5865095</v>
-      </c>
-      <c r="H9">
-        <v>29.173019</v>
-      </c>
-      <c r="I9">
-        <v>0.05412648278575529</v>
-      </c>
-      <c r="J9">
-        <v>0.03674732297192435</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>0.2431765620443333</v>
-      </c>
-      <c r="R9">
-        <v>1.459059372266</v>
-      </c>
-      <c r="S9">
-        <v>9.884221947583972E-05</v>
-      </c>
-      <c r="T9">
-        <v>6.710554197133997E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H10">
-        <v>2.014577</v>
-      </c>
-      <c r="I10">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J10">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>6.119366502729889</v>
-      </c>
-      <c r="R10">
-        <v>55.074298524569</v>
-      </c>
-      <c r="S10">
-        <v>0.002487294671127308</v>
-      </c>
-      <c r="T10">
-        <v>0.002532995381430439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H11">
-        <v>2.014577</v>
-      </c>
-      <c r="I11">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J11">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>0.01119522823088889</v>
-      </c>
-      <c r="R11">
-        <v>0.100757054078</v>
-      </c>
-      <c r="S11">
-        <v>4.550443499065095E-06</v>
-      </c>
-      <c r="T11">
-        <v>4.634051807527914E-06</v>
+        <v>0.000911104483096559</v>
       </c>
     </row>
   </sheetData>
